--- a/finance_setup_template.xlsx
+++ b/finance_setup_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\vanasso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF24DC62-BEFA-4F55-9D27-2FCDA0391BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E182C33-7314-4ADF-9FA2-17A8054FBDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.계정과목_마스터" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="157">
   <si>
     <t>구분(대분류)</t>
   </si>
@@ -528,6 +528,58 @@
   </si>
   <si>
     <t>예비비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분(대분류)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분(중분류)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴직급여</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구분(소분류) </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류 - 결산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중분류 - 결산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류 - 회장보고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정명 - 회장보고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민연금</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강보험</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고용보험</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>산재보험</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정명2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -929,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -2057,38 +2109,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.19921875" customWidth="1"/>
+    <col min="6" max="6" width="13" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -2096,27 +2156,33 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="4">
+      <c r="F2" s="4">
         <v>174380000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="4">
+      <c r="F3" s="4">
         <v>16278000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -2124,436 +2190,632 @@
         <v>85</v>
       </c>
       <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="4">
-        <v>15100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5890000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="4">
-        <v>560000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1760000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="4">
-        <v>9500000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2016000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="I8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4">
+        <v>560000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4">
+        <v>9500000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4">
+        <v>2016000</v>
+      </c>
+      <c r="I11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E12" s="2"/>
+      <c r="F12" s="4">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C13" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E13" s="2"/>
+      <c r="F13" s="4">
         <v>31800000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E14" s="2"/>
+      <c r="F14" s="4">
         <v>18000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E15" s="2"/>
+      <c r="F15" s="4">
         <v>3000000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E16" s="2"/>
+      <c r="F16" s="4">
         <v>30000000</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="4">
-        <v>18850000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="4">
-        <v>13910000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8840000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>90</v>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>98</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4">
+        <v>18850000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4">
+        <v>13910000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4">
+        <v>8840000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E20" s="2"/>
+      <c r="F20" s="4">
         <v>5590000</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E21" s="2"/>
+      <c r="F21" s="4">
         <v>90000000</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E22" s="2"/>
+      <c r="F22" s="4">
         <v>10000000</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E23" s="2"/>
+      <c r="F23" s="4">
         <v>10000000</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="4">
+      <c r="F24" s="4">
         <v>3300000</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="4">
+      <c r="F25" s="4">
         <v>2040000</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E26" s="2"/>
+      <c r="F26" s="4">
         <v>240000</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="4">
-        <v>7800000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>96</v>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>98</v>
       </c>
       <c r="B27" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4">
+        <v>7800000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E30" s="2"/>
+      <c r="F30" s="4">
         <v>1400000</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4">
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4">
+        <v>3820000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="4">
-        <v>7200000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4">
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="4">
-        <v>3820000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="4">
-        <v>960000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="4">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2600000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E36" s="2"/>
+      <c r="F36" s="4">
         <v>3200000</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E37" s="2"/>
+      <c r="F37" s="4">
         <v>30000000</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="D35" s="4">
-        <f>SUM(D2:D34)</f>
-        <v>524984000</v>
+    <row r="38" spans="1:6">
+      <c r="F38" s="4">
+        <f>SUM(F2:F37)</f>
+        <v>525284000</v>
       </c>
     </row>
   </sheetData>
